--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-schedule</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-schedule</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -397,7 +397,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -1011,7 +1011,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="223">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,7 +144,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>n/a</t>
@@ -194,10 +194,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Schedule.implicitRules</t>
   </si>
   <si>
@@ -294,9 +301,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Schedule.extension</t>
   </si>
   <si>
@@ -317,6 +321,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -353,6 +367,9 @@
     <t>External Ids for this item.</t>
   </si>
   <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
     <t>UID</t>
   </si>
   <si>
@@ -394,10 +411,16 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -425,16 +448,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -461,7 +474,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-4:If code is used in a codable consept the system and description must be used {code &gt; '' implies (system &gt; '' and display &gt; '')}</t>
+inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
   </si>
   <si>
     <t>union(., ./translation)</t>
@@ -558,6 +571,13 @@
     <t>The capacity to support multiple referenced resource types should be used in cases where the specific resources themselves cannot be scheduled without the other, and thus only make sense to the system exposing them as a group. Common examples of this are where the combination of a practitioner and a room (Location) are always required by a system.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>ATTENDEE:MAILTO:john_public@host2.com This can be populated with a value from the referenced resource</t>
   </si>
   <si>
@@ -585,8 +605,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>Schedule.actor.type</t>
@@ -663,6 +683,17 @@
     <t>The period of time that the slots that reference this Schedule resource cover (even if none exist). These  cover the amount of time that an organization's planning horizon; the interval for which they are currently accepting appointments. This does not define a "template" for planning outside these dates.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
+  </si>
+  <si>
     <t>DTSTART:20131201T003000Z DTEND:2014030101T003000Z</t>
   </si>
   <si>
@@ -676,6 +707,9 @@
   </si>
   <si>
     <t>Comments regarding the scheduler including short information about the timebook.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1022,7 +1056,7 @@
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="137.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="16.20703125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1341,13 +1375,13 @@
         <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -1358,10 +1392,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1384,16 +1418,16 @@
         <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1443,7 +1477,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
@@ -1452,13 +1486,13 @@
         <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>38</v>
@@ -1469,10 +1503,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1495,16 +1529,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1530,13 +1564,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -1554,7 +1588,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -1563,13 +1597,13 @@
         <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>38</v>
@@ -1580,14 +1614,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1606,16 +1640,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1665,7 +1699,7 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
@@ -1674,13 +1708,13 @@
         <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -1691,21 +1725,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1717,16 +1751,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1776,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -1791,7 +1825,7 @@
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>38</v>
@@ -1802,14 +1836,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1828,16 +1862,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1875,19 +1909,19 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -1896,13 +1930,13 @@
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>38</v>
@@ -1913,14 +1947,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1939,19 +1973,19 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -1988,19 +2022,19 @@
         <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2009,13 +2043,13 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>38</v>
@@ -2026,10 +2060,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2037,7 +2071,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -2052,13 +2086,13 @@
         <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2109,7 +2143,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2118,27 +2152,27 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2161,68 +2195,68 @@
         <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2231,27 +2265,27 @@
         <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2274,15 +2308,17 @@
         <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -2307,29 +2343,29 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -2338,27 +2374,27 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2381,13 +2417,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2438,7 +2474,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -2464,14 +2500,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2490,16 +2526,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2537,19 +2573,19 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -2558,13 +2594,13 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2575,10 +2611,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2601,19 +2637,19 @@
         <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -2662,7 +2698,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -2671,13 +2707,13 @@
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -2688,10 +2724,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2714,19 +2750,19 @@
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -2775,7 +2811,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -2784,13 +2820,13 @@
         <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
@@ -2801,10 +2837,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2827,15 +2863,17 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -2860,29 +2898,29 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -2891,27 +2929,27 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2934,13 +2972,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2991,7 +3029,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3017,14 +3055,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3043,16 +3081,16 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3090,19 +3128,19 @@
         <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3111,13 +3149,13 @@
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -3128,10 +3166,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3154,19 +3192,19 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3215,7 +3253,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -3224,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -3241,10 +3279,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3267,19 +3305,19 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -3328,7 +3366,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -3337,13 +3375,13 @@
         <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -3354,10 +3392,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3380,15 +3418,17 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -3413,31 +3453,31 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Z22" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -3446,27 +3486,27 @@
         <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3489,13 +3529,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3546,7 +3586,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -3572,14 +3612,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3598,16 +3638,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3645,19 +3685,19 @@
         <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -3666,13 +3706,13 @@
         <v>37</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
@@ -3683,10 +3723,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3709,19 +3749,19 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -3770,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -3779,13 +3819,13 @@
         <v>37</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
@@ -3796,10 +3836,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3822,19 +3862,19 @@
         <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -3883,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -3892,13 +3932,13 @@
         <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -3909,10 +3949,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3935,16 +3975,16 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3994,7 +4034,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>46</v>
@@ -4003,27 +4043,27 @@
         <v>37</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4046,13 +4086,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4103,7 +4143,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -4129,14 +4169,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4155,16 +4195,16 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4202,19 +4242,19 @@
         <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -4223,13 +4263,13 @@
         <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -4240,10 +4280,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4266,16 +4306,16 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4325,7 +4365,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -4334,13 +4374,13 @@
         <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
@@ -4351,10 +4391,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4377,16 +4417,16 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4412,13 +4452,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -4436,7 +4476,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -4445,13 +4485,13 @@
         <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
@@ -4462,10 +4502,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4488,16 +4528,16 @@
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4547,7 +4587,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -4556,13 +4596,13 @@
         <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -4573,10 +4613,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4599,16 +4639,16 @@
         <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4658,7 +4698,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -4667,13 +4707,13 @@
         <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -4684,10 +4724,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4710,15 +4750,17 @@
         <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -4767,7 +4809,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -4776,27 +4818,27 @@
         <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4819,15 +4861,17 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -4876,7 +4920,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -4885,16 +4929,16 @@
         <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T15:53:02+01:00</t>
+    <t>2023-11-19T21:48:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="269">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -376,6 +376,190 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Schedule.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Schedule.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Schedule.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Schedule.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Schedule.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Schedule.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Schedule.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Schedule.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>Schedule.active</t>
   </si>
   <si>
@@ -401,10 +585,6 @@
     <t>Schedule.serviceCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>High-level category</t>
   </si>
   <si>
@@ -414,9 +594,6 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
   </si>
   <si>
@@ -429,26 +606,7 @@
     <t>Schedule.serviceCategory.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Schedule.serviceCategory.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Schedule.serviceCategory.coding</t>
@@ -571,10 +729,6 @@
     <t>The capacity to support multiple referenced resource types should be used in cases where the specific resources themselves cannot be scheduled without the other, and thus only make sense to the system exposing them as a group. Common examples of this are where the combination of a practitioner and a room (Location) are always required by a system.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
@@ -620,9 +774,6 @@
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
@@ -673,22 +824,10 @@
     <t>Schedule.planningHorizon</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Period of time covered by schedule</t>
   </si>
   <si>
     <t>The period of time that the slots that reference this Schedule resource cover (even if none exist). These  cover the amount of time that an organization's planning horizon; the interval for which they are currently accepting appointments. This does not define a "template" for planning outside these dates.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
@@ -1013,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1039,12 +1178,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="70.734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
@@ -2071,10 +2210,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2189,10 +2328,10 @@
         <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>115</v>
@@ -2203,16 +2342,12 @@
       <c r="M11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>118</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q11" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
         <v>38</v>
       </c>
@@ -2256,7 +2391,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2265,10 +2400,10 @@
         <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>43</v>
@@ -2277,19 +2412,19 @@
         <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2305,19 +2440,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2343,26 +2478,28 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>121</v>
@@ -2377,24 +2514,24 @@
         <v>58</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2411,22 +2548,26 @@
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2450,13 +2591,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -2474,7 +2615,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -2483,13 +2624,13 @@
         <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -2500,21 +2641,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2523,21 +2664,23 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
       </c>
@@ -2561,46 +2704,46 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2611,10 +2754,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2622,10 +2765,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2637,19 +2780,19 @@
         <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -2662,7 +2805,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>38</v>
@@ -2698,22 +2841,22 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -2724,10 +2867,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2735,7 +2878,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>46</v>
@@ -2750,20 +2893,18 @@
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>38</v>
       </c>
@@ -2775,7 +2916,7 @@
         <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>38</v>
@@ -2811,7 +2952,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -2826,7 +2967,7 @@
         <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
@@ -2837,10 +2978,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2851,7 +2992,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2863,16 +3004,16 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2898,11 +3039,13 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
@@ -2920,36 +3063,36 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2969,18 +3112,20 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3029,7 +3174,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3038,13 +3183,13 @@
         <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3055,48 +3200,50 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="R19" t="s" s="2">
         <v>38</v>
       </c>
@@ -3128,48 +3275,48 @@
         <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>38</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3192,20 +3339,18 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>38</v>
       </c>
@@ -3229,13 +3374,11 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
@@ -3253,7 +3396,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -3265,24 +3408,24 @@
         <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3302,23 +3445,19 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>38</v>
       </c>
@@ -3366,7 +3505,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -3375,13 +3514,13 @@
         <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -3392,14 +3531,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3415,19 +3554,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3453,31 +3592,31 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -3489,24 +3628,24 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3517,7 +3656,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3526,19 +3665,23 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
       </c>
@@ -3586,22 +3729,22 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
@@ -3612,21 +3755,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3635,21 +3778,23 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3685,34 +3830,34 @@
         <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
@@ -3723,10 +3868,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3749,20 +3894,18 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>38</v>
       </c>
@@ -3786,13 +3929,11 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -3810,7 +3951,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -3822,24 +3963,24 @@
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3859,23 +4000,19 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>38</v>
       </c>
@@ -3923,7 +4060,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -3932,13 +4069,13 @@
         <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -3949,18 +4086,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>37</v>
@@ -3972,19 +4109,19 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4022,22 +4159,22 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -4046,24 +4183,24 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4074,7 +4211,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4083,19 +4220,23 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
       </c>
@@ -4143,22 +4284,22 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
@@ -4169,21 +4310,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4192,21 +4333,23 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
       </c>
@@ -4242,34 +4385,34 @@
         <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -4280,10 +4423,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4294,7 +4437,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4306,16 +4449,16 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4341,13 +4484,13 @@
         <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>38</v>
@@ -4365,36 +4508,36 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4402,7 +4545,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>46</v>
@@ -4414,20 +4557,18 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -4452,13 +4593,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -4476,7 +4617,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -4485,13 +4626,13 @@
         <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
@@ -4502,21 +4643,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -4525,19 +4666,19 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4575,34 +4716,34 @@
         <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -4613,10 +4754,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4627,7 +4768,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4639,18 +4780,20 @@
         <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
       </c>
@@ -4698,22 +4841,22 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -4724,10 +4867,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4750,18 +4893,20 @@
         <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
       </c>
@@ -4809,7 +4954,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -4821,24 +4966,24 @@
         <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4846,10 +4991,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -4858,19 +5003,19 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -4920,27 +5065,913 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T10:30:52+01:00</t>
+    <t>2024-01-15T07:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:24:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:24:21+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-schedule.xlsx
+++ b/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
